--- a/Models.xlsx
+++ b/Models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Folder</t>
   </si>
@@ -152,6 +152,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -173,6 +174,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,7 +248,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -372,6 +374,9 @@
       <c r="D7" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -470,6 +475,9 @@
       </c>
       <c r="D14" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -80,7 +80,7 @@
     <t>CBMAA_URLs</t>
   </si>
   <si>
-    <t>LOD CBMAA Image URLs_with_header</t>
+    <t>LOD CBMAA Image URLs_with_header.csv</t>
   </si>
   <si>
     <t>CBMAA_URLs-model.ttl</t>
@@ -128,7 +128,7 @@
     <t>PG_URLs</t>
   </si>
   <si>
-    <t>LOD PG Image URLs_with_header</t>
+    <t>LOD PG Image URLs_with_header.csv</t>
   </si>
   <si>
     <t>PG_URLs-model.ttl</t>
@@ -248,7 +248,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -254,7 +254,7 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8418367346939"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2244897959184"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
